--- a/public/assets/sample_excels/employee_import.xlsx
+++ b/public/assets/sample_excels/employee_import.xlsx
@@ -14,46 +14,935 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Employee Code</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="304">
   <si>
     <t>Employee Name</t>
   </si>
   <si>
-    <t>E001</t>
-  </si>
-  <si>
-    <t>E002</t>
-  </si>
-  <si>
-    <t>E003</t>
-  </si>
-  <si>
-    <t>Employee 1</t>
-  </si>
-  <si>
-    <t>Employee 2</t>
-  </si>
-  <si>
-    <t>Employee 3</t>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Date of Joining</t>
+  </si>
+  <si>
+    <t>Father's/Husband's Name</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>PAN</t>
+  </si>
+  <si>
+    <t>Resignation
+Date</t>
+  </si>
+  <si>
+    <t>Confirmation
+Date</t>
+  </si>
+  <si>
+    <t>Probation
+Period</t>
+  </si>
+  <si>
+    <t>Address (Permanent)</t>
+  </si>
+  <si>
+    <t>City (Permanent)</t>
+  </si>
+  <si>
+    <t>PIN
+(Permanent)</t>
+  </si>
+  <si>
+    <t>District
+(Permanent)</t>
+  </si>
+  <si>
+    <t>State
+(Permanent)</t>
+  </si>
+  <si>
+    <t>Address (Corresp.)</t>
+  </si>
+  <si>
+    <t>City (Corresp.)</t>
+  </si>
+  <si>
+    <t>PIN
+(Corresp.)</t>
+  </si>
+  <si>
+    <t>District
+(Corresp.)</t>
+  </si>
+  <si>
+    <t>State
+(Corresp.)</t>
+  </si>
+  <si>
+    <t>STD Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone </t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Marital Status</t>
+  </si>
+  <si>
+    <t>Date of Marriage</t>
+  </si>
+  <si>
+    <t>Spouse Name</t>
+  </si>
+  <si>
+    <t>E-Mail</t>
+  </si>
+  <si>
+    <t>UAN</t>
+  </si>
+  <si>
+    <t>PF No.</t>
+  </si>
+  <si>
+    <t>ESI No.</t>
+  </si>
+  <si>
+    <t>Bank Name</t>
+  </si>
+  <si>
+    <t>IFSC</t>
+  </si>
+  <si>
+    <t>A/c Number</t>
+  </si>
+  <si>
+    <t>Name as per Bank</t>
+  </si>
+  <si>
+    <t>Work Location</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t>Aadhar Number</t>
+  </si>
+  <si>
+    <t>Name as per Aadhar</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Designation</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Scale</t>
+  </si>
+  <si>
+    <t>PT Group</t>
+  </si>
+  <si>
+    <t>Shift</t>
+  </si>
+  <si>
+    <t>Payment Mode</t>
+  </si>
+  <si>
+    <t>Company id</t>
+  </si>
+  <si>
+    <t>G00053</t>
+  </si>
+  <si>
+    <t>MANJULA N</t>
+  </si>
+  <si>
+    <t>NAGAIYAN</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>36, MURUGAR KOIL ST., PUTHUNAGAR, ALANKUPPAM,</t>
+  </si>
+  <si>
+    <t>IRUMBAI (PO), PONDICHERRY</t>
+  </si>
+  <si>
+    <t>IRUMBAI PO, PONDICHERRY</t>
+  </si>
+  <si>
+    <t>MARRIED</t>
+  </si>
+  <si>
+    <t>PC/2287/00001</t>
+  </si>
+  <si>
+    <t>STATE BANK OF INDIA</t>
+  </si>
+  <si>
+    <t>SBIN0003160</t>
+  </si>
+  <si>
+    <t>MANJULA .N</t>
+  </si>
+  <si>
+    <t>N MANJULA</t>
+  </si>
+  <si>
+    <t>G00055</t>
+  </si>
+  <si>
+    <t>VALLI P</t>
+  </si>
+  <si>
+    <t>PALANI .H</t>
+  </si>
+  <si>
+    <t>217, KASTHURAI PETTAI ST., THIRUKKANDESVARAM &amp; P.O NELLIKUPPAM ( VIA)</t>
+  </si>
+  <si>
+    <t>PANTRUTTI T.K,</t>
+  </si>
+  <si>
+    <t>PC/2287/00002</t>
+  </si>
+  <si>
+    <t>SBIN0004765</t>
+  </si>
+  <si>
+    <t>VALLI  .P</t>
+  </si>
+  <si>
+    <t>VALLI</t>
+  </si>
+  <si>
+    <t>K00034</t>
+  </si>
+  <si>
+    <t>SELVI M</t>
+  </si>
+  <si>
+    <t>MADAVAN</t>
+  </si>
+  <si>
+    <t>VINAYAGAR KOIL ST., RAYAPUDUPAKKAM &amp; PO,</t>
+  </si>
+  <si>
+    <t>VANUR T.K,</t>
+  </si>
+  <si>
+    <t>PC/2287/00003</t>
+  </si>
+  <si>
+    <t>SELVI .M</t>
+  </si>
+  <si>
+    <t>M00007</t>
+  </si>
+  <si>
+    <t>DEVI S</t>
+  </si>
+  <si>
+    <t>SANKAR .G</t>
+  </si>
+  <si>
+    <t>NO.20, IYYANAR KOIL STREET, MADUKARAI</t>
+  </si>
+  <si>
+    <t>PONDICHERRY</t>
+  </si>
+  <si>
+    <t>PC/2287/10085</t>
+  </si>
+  <si>
+    <t>SBIN0012793</t>
+  </si>
+  <si>
+    <t>S DEVI</t>
+  </si>
+  <si>
+    <t>M00008</t>
+  </si>
+  <si>
+    <t>KALAISELVI K</t>
+  </si>
+  <si>
+    <t>KANAGAN</t>
+  </si>
+  <si>
+    <t>NO.17, TAGORE NAGAR, 8TH CROSS (ST), LAWSPET</t>
+  </si>
+  <si>
+    <t>WIDOW</t>
+  </si>
+  <si>
+    <t>PC/2287/00009</t>
+  </si>
+  <si>
+    <t>SBIN0010507</t>
+  </si>
+  <si>
+    <t>KALAISELVI .K</t>
+  </si>
+  <si>
+    <t>KALAISELVI</t>
+  </si>
+  <si>
+    <t>M00018</t>
+  </si>
+  <si>
+    <t>SARITHA</t>
+  </si>
+  <si>
+    <t>KAMARAJ .S</t>
+  </si>
+  <si>
+    <t>VINAYAGAR KOIL ST., VIRATTIKUPPAM</t>
+  </si>
+  <si>
+    <t>VILLUPURAM T.K</t>
+  </si>
+  <si>
+    <t>PC/2287/10023</t>
+  </si>
+  <si>
+    <t>SBIN0006842</t>
+  </si>
+  <si>
+    <t>M00020</t>
+  </si>
+  <si>
+    <t>PRABAVATHI M</t>
+  </si>
+  <si>
+    <t>MURUGAIYAN .D</t>
+  </si>
+  <si>
+    <t>NO.93-A, BAJANAI MADAM STREET, MANJINI NAGAR, MITHIALPET</t>
+  </si>
+  <si>
+    <t>PC/2287/10025</t>
+  </si>
+  <si>
+    <t>PRABAVATHY .M</t>
+  </si>
+  <si>
+    <t>PRABHAVATHI</t>
+  </si>
+  <si>
+    <t>M00021</t>
+  </si>
+  <si>
+    <t>LAKSHMI .M</t>
+  </si>
+  <si>
+    <t>MURUGAN .E</t>
+  </si>
+  <si>
+    <t>NO.1/98, SCHOOL STREET, OLINDHIYAPATTU &amp; P.O</t>
+  </si>
+  <si>
+    <t>VANUR T.K</t>
+  </si>
+  <si>
+    <t>SCHOOL ST, OLINDHIYAPATTU &amp; P.O</t>
+  </si>
+  <si>
+    <t>PC/2287/10026</t>
+  </si>
+  <si>
+    <t>LAKSHMI MURUGAN</t>
+  </si>
+  <si>
+    <t>M00022</t>
+  </si>
+  <si>
+    <t>USHA S</t>
+  </si>
+  <si>
+    <t>SAMPATH .P</t>
+  </si>
+  <si>
+    <t>NO. 1/76, SCHOOL STREET, OZHINTHIYAPATTU</t>
+  </si>
+  <si>
+    <t>PC/2287/10028</t>
+  </si>
+  <si>
+    <t>USHA .S</t>
+  </si>
+  <si>
+    <t>USHA  S</t>
+  </si>
+  <si>
+    <t>M00026</t>
+  </si>
+  <si>
+    <t>SANTHY M</t>
+  </si>
+  <si>
+    <t>MANIKANDAN</t>
+  </si>
+  <si>
+    <t>NO:91, MARIAMMAN KOIL STREET, ALANKUPPAM</t>
+  </si>
+  <si>
+    <t>ALANKUPPAM</t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>PC/2287/10032</t>
+  </si>
+  <si>
+    <t>SBIN0001613</t>
+  </si>
+  <si>
+    <t>SANTHI M</t>
+  </si>
+  <si>
+    <t>M SANTHY</t>
+  </si>
+  <si>
+    <t>M00036</t>
+  </si>
+  <si>
+    <t>VALLI S</t>
+  </si>
+  <si>
+    <t>SENTHILMURUGAN G</t>
+  </si>
+  <si>
+    <t>NO15, 3RD CROSS, RAJAJI NAGAR, LAWSPET</t>
+  </si>
+  <si>
+    <t>PONDICHEERY</t>
+  </si>
+  <si>
+    <t>PC/2287/10042</t>
+  </si>
+  <si>
+    <t>S VALLI</t>
+  </si>
+  <si>
+    <t>M00039</t>
+  </si>
+  <si>
+    <t>POKKILAI D</t>
+  </si>
+  <si>
+    <t>DHANASU A</t>
+  </si>
+  <si>
+    <t>NO.6, TINDIVANAM ROAD, SANJEEVI NAGAR</t>
+  </si>
+  <si>
+    <t>PC/2287/10044</t>
+  </si>
+  <si>
+    <t>POKKILAI  D</t>
+  </si>
+  <si>
+    <t>D  POKKILAI</t>
+  </si>
+  <si>
+    <t>M00041</t>
+  </si>
+  <si>
+    <t>VIJAYA S</t>
+  </si>
+  <si>
+    <t>SARAVANAN  V</t>
+  </si>
+  <si>
+    <t>J.M.J. MOTHER LAND, ALANKUPPAM</t>
+  </si>
+  <si>
+    <t>PC/2287/10056</t>
+  </si>
+  <si>
+    <t>VIJAYA  S</t>
+  </si>
+  <si>
+    <t>S VIJAYA</t>
+  </si>
+  <si>
+    <t>M00042</t>
+  </si>
+  <si>
+    <t>SRIPRIYA</t>
+  </si>
+  <si>
+    <t>CHNADRASEKARAN</t>
+  </si>
+  <si>
+    <t>1/32 B, KALATHUMETTU STREET, CHITTALAMBATTU, TIRUKKANUR</t>
+  </si>
+  <si>
+    <t>VILLUPURAM DIST.</t>
+  </si>
+  <si>
+    <t>PC/2287/10048</t>
+  </si>
+  <si>
+    <t>SRIPRIYA CHANDRASEKARAN</t>
+  </si>
+  <si>
+    <t>M00045</t>
+  </si>
+  <si>
+    <t>SHEELA N</t>
+  </si>
+  <si>
+    <t>NARAYANAMOORTHI</t>
+  </si>
+  <si>
+    <t>NO.134, SCHOOL STREET, OLUNDIYAPATTU</t>
+  </si>
+  <si>
+    <t>PC/2287/10052</t>
+  </si>
+  <si>
+    <t>M00046</t>
+  </si>
+  <si>
+    <t>SANTHIYA L</t>
+  </si>
+  <si>
+    <t>LAKSHMANAN</t>
+  </si>
+  <si>
+    <t>1/46, VINAYAGAR KOIL STREET, S METTUPALAYAM</t>
+  </si>
+  <si>
+    <t>KONGAMBATTU</t>
+  </si>
+  <si>
+    <t>NO.33, GV NAGAR, ALANKUPPAM</t>
+  </si>
+  <si>
+    <t>PC/2287/10053</t>
+  </si>
+  <si>
+    <t>M00047</t>
+  </si>
+  <si>
+    <t>ARTHI A</t>
+  </si>
+  <si>
+    <t>ARIKRISHNAN</t>
+  </si>
+  <si>
+    <t>NO: 30, MARIAMMAN KOIL STREET, ALANKUPPAM</t>
+  </si>
+  <si>
+    <t>UnMarried</t>
+  </si>
+  <si>
+    <t>PC/2287/10054</t>
+  </si>
+  <si>
+    <t>A ARTHY</t>
+  </si>
+  <si>
+    <t>M00053</t>
+  </si>
+  <si>
+    <t>SOWNDARI M</t>
+  </si>
+  <si>
+    <t>MUTHUKRISHNAN</t>
+  </si>
+  <si>
+    <t>64, MURUGAN KOIL STREET, TORUVAI</t>
+  </si>
+  <si>
+    <t>PC/2287/10057</t>
+  </si>
+  <si>
+    <t>INDIAN BANK</t>
+  </si>
+  <si>
+    <t>IDIB000T070</t>
+  </si>
+  <si>
+    <t>M SOUNDARI</t>
+  </si>
+  <si>
+    <t>SOWNDARI MUTHUKRISHNAN</t>
+  </si>
+  <si>
+    <t>M00055</t>
+  </si>
+  <si>
+    <t>VIJAYAKUMARI</t>
+  </si>
+  <si>
+    <t>AZHAGAPPAN</t>
+  </si>
+  <si>
+    <t>72, MARIAMMAN KOIL STREET, ALANKUPPAM</t>
+  </si>
+  <si>
+    <t>Widow</t>
+  </si>
+  <si>
+    <t>PC/2287/10063</t>
+  </si>
+  <si>
+    <t>PUDUVAI BHARATHIAR GRAMA BANK</t>
+  </si>
+  <si>
+    <t>IDIB0PBG001</t>
+  </si>
+  <si>
+    <t>VIJAYALUMARI</t>
+  </si>
+  <si>
+    <t>M00056</t>
+  </si>
+  <si>
+    <t>LAKSHMI S</t>
+  </si>
+  <si>
+    <t>SOUNDARARAJAN</t>
+  </si>
+  <si>
+    <t>34, G.V.NAGAR, ALANKUPPAM</t>
+  </si>
+  <si>
+    <t>PC/2287/10062</t>
+  </si>
+  <si>
+    <t>S LAKSHMI</t>
+  </si>
+  <si>
+    <t>M00062</t>
+  </si>
+  <si>
+    <t>LAKSHMI E</t>
+  </si>
+  <si>
+    <t>ELANGOVAN</t>
+  </si>
+  <si>
+    <t>154, VENGADESHWARA NAGAR, ACHARAMPATTU</t>
+  </si>
+  <si>
+    <t>PC/2287/10070</t>
+  </si>
+  <si>
+    <t>I LAKSHMI</t>
+  </si>
+  <si>
+    <t>M00063</t>
+  </si>
+  <si>
+    <t>VIJAYA R</t>
+  </si>
+  <si>
+    <t>RAMALINGAM</t>
+  </si>
+  <si>
+    <t>25, BAJANAI MADAM STREET, VENNILA NAGAR, SARAM</t>
+  </si>
+  <si>
+    <t>PC/2287/10067</t>
+  </si>
+  <si>
+    <t>R VIJAYA</t>
+  </si>
+  <si>
+    <t>M00065</t>
+  </si>
+  <si>
+    <t>SUSEELA M</t>
+  </si>
+  <si>
+    <t>MANJINI</t>
+  </si>
+  <si>
+    <t>NO.8, KAMARAJ STREET, ALANKUPPAM</t>
+  </si>
+  <si>
+    <t>PC/2287/10072</t>
+  </si>
+  <si>
+    <t>M SUSEELA</t>
+  </si>
+  <si>
+    <t>M00066</t>
+  </si>
+  <si>
+    <t>SUGANTHY S</t>
+  </si>
+  <si>
+    <t>SANJAI M</t>
+  </si>
+  <si>
+    <t>28, PERUMAL KOIL STREET, ALANKUPPAM</t>
+  </si>
+  <si>
+    <t>PC/2287/10073</t>
+  </si>
+  <si>
+    <t>EQUITAS SMALL FINANCE BANK</t>
+  </si>
+  <si>
+    <t>ESFB0001005</t>
+  </si>
+  <si>
+    <t>SUGANTHY</t>
+  </si>
+  <si>
+    <t>M00068</t>
+  </si>
+  <si>
+    <t>ASHA S</t>
+  </si>
+  <si>
+    <t>SELVAN M</t>
+  </si>
+  <si>
+    <t>129, CINEMA THEATRE STREET, PUDU NAGAR, SANJEEVI NAGAR</t>
+  </si>
+  <si>
+    <t>PC/2287/10071</t>
+  </si>
+  <si>
+    <t>ASHA J</t>
+  </si>
+  <si>
+    <t>ASHA</t>
+  </si>
+  <si>
+    <t>M00069</t>
+  </si>
+  <si>
+    <t>DEEPA V</t>
+  </si>
+  <si>
+    <t>VINOTHKUMAR</t>
+  </si>
+  <si>
+    <t>82, ESWARAN KOIL STREET, PULICHAPALLAM</t>
+  </si>
+  <si>
+    <t>PC/2287/10074</t>
+  </si>
+  <si>
+    <t>DEEPA BABU</t>
+  </si>
+  <si>
+    <t>DEEPA</t>
+  </si>
+  <si>
+    <t>M00070</t>
+  </si>
+  <si>
+    <t>MANGAYARCARSY ALIAS SELVI</t>
+  </si>
+  <si>
+    <t>BASKAR L</t>
+  </si>
+  <si>
+    <t>C 143, ANGALAMMAN KOIL STREET, ALANKUPPAM</t>
+  </si>
+  <si>
+    <t>PC/2287/10077</t>
+  </si>
+  <si>
+    <t>B MANGAYARCARSY ALIAS SELVI</t>
+  </si>
+  <si>
+    <t>M00073</t>
+  </si>
+  <si>
+    <t>SUGANTHI J</t>
+  </si>
+  <si>
+    <t>JANAGIRAMAN</t>
+  </si>
+  <si>
+    <t>285, AMBETHKAR STREET, RAYAPUDUPAKKAM</t>
+  </si>
+  <si>
+    <t>PC/2287/10080</t>
+  </si>
+  <si>
+    <t>SUGANTHI</t>
+  </si>
+  <si>
+    <t>M00076</t>
+  </si>
+  <si>
+    <t>POORANI B</t>
+  </si>
+  <si>
+    <t>BALU S</t>
+  </si>
+  <si>
+    <t>43/A, MARIAMMAN KOIL STREET, ALANKUPPAM</t>
+  </si>
+  <si>
+    <t>PC/2287/10083</t>
+  </si>
+  <si>
+    <t>B POORANI</t>
+  </si>
+  <si>
+    <t>M00077</t>
+  </si>
+  <si>
+    <t>VISALATCHI A</t>
+  </si>
+  <si>
+    <t>ARUMUGAM</t>
+  </si>
+  <si>
+    <t>NO. 26, MARIAMMAN KOIL STREET, ALANKUPPAM</t>
+  </si>
+  <si>
+    <t>PC/2287/10084</t>
+  </si>
+  <si>
+    <t>A VISALATCHI</t>
+  </si>
+  <si>
+    <t>M00078</t>
+  </si>
+  <si>
+    <t>MUNIYAMMAL M</t>
+  </si>
+  <si>
+    <t>MUNIYAN</t>
+  </si>
+  <si>
+    <t>127, 5TH CROSS STREET, INDIRA NAGAR, ALANKUPPAM</t>
+  </si>
+  <si>
+    <t>PC/2287/10086</t>
+  </si>
+  <si>
+    <t>M MUNIYAMMAL</t>
+  </si>
+  <si>
+    <t>M00079</t>
+  </si>
+  <si>
+    <t>SIVARANJANI A</t>
+  </si>
+  <si>
+    <t>ARIVAZHAGAN</t>
+  </si>
+  <si>
+    <t>31, G.V. NAGAR, ALANKUPPAM</t>
+  </si>
+  <si>
+    <t>PC/2287/10087</t>
+  </si>
+  <si>
+    <t>SIVARANJANI</t>
+  </si>
+  <si>
+    <t>M00080</t>
+  </si>
+  <si>
+    <t>VINDHIYA M</t>
+  </si>
+  <si>
+    <t>MUTHU</t>
+  </si>
+  <si>
+    <t>NO.29, G.V. NAGAR, ALANKUPPAM</t>
+  </si>
+  <si>
+    <t>PC/2287/10088</t>
+  </si>
+  <si>
+    <t>M VINDHIYA</t>
+  </si>
+  <si>
+    <t>M00081</t>
+  </si>
+  <si>
+    <t>MAGESWARI V</t>
+  </si>
+  <si>
+    <t>VEERAPPAN</t>
+  </si>
+  <si>
+    <t>40, MARIAMMAN KOIL STREET, ALANKUPPAM</t>
+  </si>
+  <si>
+    <t>PC/2287/10089</t>
+  </si>
+  <si>
+    <t>V MAGESWARI</t>
+  </si>
+  <si>
+    <t>M00082</t>
+  </si>
+  <si>
+    <t>RENUKADEVI B</t>
+  </si>
+  <si>
+    <t>BALAMURUGAN</t>
+  </si>
+  <si>
+    <t>472, MARIAMMAN KOIL BACK SIDE, RAYAPETTAI</t>
+  </si>
+  <si>
+    <t>PC/2287/10090</t>
+  </si>
+  <si>
+    <t>RENUKADEVI</t>
+  </si>
+  <si>
+    <t>V00005</t>
+  </si>
+  <si>
+    <t>MAHESWARI K</t>
+  </si>
+  <si>
+    <t>KUMAR</t>
+  </si>
+  <si>
+    <t>ANGALAMMAN KOIL ST., ALANKUPPAM, IRUMBAI PO.,</t>
+  </si>
+  <si>
+    <t>PC/2287/10017</t>
+  </si>
+  <si>
+    <t>MAHESWARI .K</t>
+  </si>
+  <si>
+    <t>K MAHESWARI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
@@ -78,11 +967,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,10 +1274,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:AU37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -395,53 +1287,3722 @@
     <col min="3" max="3" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:47" ht="45">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3"/>
+    <row r="2" spans="1:47">
+      <c r="A2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="3">
+        <v>41000</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="3">
+        <v>30073</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="1">
+        <v>605111</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R2" s="1">
+        <v>605111</v>
+      </c>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1">
+        <v>8098433052</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="4">
+        <v>100000000000</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>5516039881</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>20322124148</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="4">
+        <v>779000000000</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3"/>
+    <row r="3" spans="1:47">
+      <c r="A3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3">
+        <v>41000</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="3">
+        <v>27760</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1">
+        <v>27</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1">
+        <v>27</v>
+      </c>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1">
+        <v>9176298342</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="4">
+        <v>100000000000</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>5516056428</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>32546938743</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="4">
+        <v>820000000000</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3"/>
+    <row r="4" spans="1:47">
+      <c r="A4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="3">
+        <v>41000</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="3">
+        <v>28028</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1">
+        <v>9786671877</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="4">
+        <v>100000000000</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>5516039930</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>36375034083</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="4">
+        <v>617000000000</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47">
+      <c r="A5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="3">
+        <v>45078</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="3">
+        <v>29726</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1">
+        <v>8682899133</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="4">
+        <v>100000000000</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>5517501941</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>20394239234</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="4">
+        <v>590000000000</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47">
+      <c r="A6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="3">
+        <v>41000</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="3">
+        <v>27921</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1">
+        <v>9171903939</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="4">
+        <v>100000000000</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>5517502788</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>20202991832</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="4">
+        <v>631000000000</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1"/>
+      <c r="AS6" s="1"/>
+      <c r="AT6" s="1"/>
+      <c r="AU6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47">
+      <c r="A7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="3">
+        <v>41426</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="3">
+        <v>29811</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" s="1">
+        <v>605302</v>
+      </c>
+      <c r="N7" s="1">
+        <v>37</v>
+      </c>
+      <c r="O7" s="1">
+        <v>27</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="R7" s="1">
+        <v>605302</v>
+      </c>
+      <c r="S7" s="1">
+        <v>37</v>
+      </c>
+      <c r="T7" s="1">
+        <v>27</v>
+      </c>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1">
+        <v>9751422571</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="4">
+        <v>100000000000</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>5513868944</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>36459416353</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="4">
+        <v>955000000000</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1"/>
+      <c r="AS7" s="1"/>
+      <c r="AT7" s="1"/>
+      <c r="AU7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47">
+      <c r="A8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="3">
+        <v>41760</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="3">
+        <v>29652</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M8" s="1">
+        <v>605003</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R8" s="1">
+        <v>605003</v>
+      </c>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1">
+        <v>7867998288</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="4">
+        <v>100000000000</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>5516077685</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>20055845945</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="4">
+        <v>569000000000</v>
+      </c>
+      <c r="AL8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1"/>
+      <c r="AS8" s="1"/>
+      <c r="AT8" s="1"/>
+      <c r="AU8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47">
+      <c r="A9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="3">
+        <v>41760</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="3">
+        <v>29717</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M9" s="1">
+        <v>605109</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1">
+        <v>27</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1">
+        <v>9786526213</v>
+      </c>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="4">
+        <v>100000000000</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>5516056007</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>36324478008</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="4">
+        <v>324000000000</v>
+      </c>
+      <c r="AL9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="1"/>
+      <c r="AP9" s="1"/>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="1"/>
+      <c r="AS9" s="1"/>
+      <c r="AT9" s="1"/>
+      <c r="AU9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47">
+      <c r="A10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="3">
+        <v>41791</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="3">
+        <v>29045</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M10" s="1">
+        <v>605109</v>
+      </c>
+      <c r="N10" s="1">
+        <v>37</v>
+      </c>
+      <c r="O10" s="1">
+        <v>27</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="R10" s="1">
+        <v>605109</v>
+      </c>
+      <c r="S10" s="1">
+        <v>37</v>
+      </c>
+      <c r="T10" s="1">
+        <v>27</v>
+      </c>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1">
+        <v>9003368354</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="4">
+        <v>101000000000</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>5517503522</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>36324477934</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="4">
+        <v>303000000000</v>
+      </c>
+      <c r="AL10" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="1"/>
+      <c r="AO10" s="1"/>
+      <c r="AP10" s="1"/>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="1"/>
+      <c r="AS10" s="1"/>
+      <c r="AT10" s="1"/>
+      <c r="AU10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47">
+      <c r="A11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="3">
+        <v>44593</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="3">
+        <v>28600</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M11" s="1">
+        <v>605111</v>
+      </c>
+      <c r="N11" s="1">
+        <v>39</v>
+      </c>
+      <c r="O11" s="1">
+        <v>23</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="R11" s="1">
+        <v>605111</v>
+      </c>
+      <c r="S11" s="1">
+        <v>39</v>
+      </c>
+      <c r="T11" s="1">
+        <v>23</v>
+      </c>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1">
+        <v>9787339964</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="4">
+        <v>101000000000</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>5513867688</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>33105458390</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK11" s="4">
+        <v>522000000000</v>
+      </c>
+      <c r="AL11" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="1"/>
+      <c r="AP11" s="1"/>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="1"/>
+      <c r="AS11" s="1"/>
+      <c r="AT11" s="1"/>
+      <c r="AU11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47">
+      <c r="A12" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="3">
+        <v>43132</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="3">
+        <v>30012</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M12" s="1">
+        <v>605008</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="R12" s="1">
+        <v>605008</v>
+      </c>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1">
+        <v>9994999547</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="4">
+        <v>101000000000</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>5517506711</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>35143137998</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK12" s="4">
+        <v>325000000000</v>
+      </c>
+      <c r="AL12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="1"/>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1"/>
+      <c r="AS12" s="1"/>
+      <c r="AT12" s="1"/>
+      <c r="AU12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47">
+      <c r="A13" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="3">
+        <v>44652</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="3">
+        <v>31548</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M13" s="1">
+        <v>605111</v>
+      </c>
+      <c r="N13" s="1">
+        <v>39</v>
+      </c>
+      <c r="O13" s="1">
+        <v>23</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R13" s="1">
+        <v>605111</v>
+      </c>
+      <c r="S13" s="1">
+        <v>39</v>
+      </c>
+      <c r="T13" s="1">
+        <v>23</v>
+      </c>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1">
+        <v>9943349737</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="4">
+        <v>101000000000</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>5519324512</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>20326481334</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK13" s="4">
+        <v>745000000000</v>
+      </c>
+      <c r="AL13" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1"/>
+      <c r="AP13" s="1"/>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="1"/>
+      <c r="AS13" s="1"/>
+      <c r="AT13" s="1"/>
+      <c r="AU13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47">
+      <c r="A14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="3">
+        <v>44652</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="3">
+        <v>29473</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1">
+        <v>605111</v>
+      </c>
+      <c r="N14" s="1">
+        <v>39</v>
+      </c>
+      <c r="O14" s="1">
+        <v>23</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1">
+        <v>605111</v>
+      </c>
+      <c r="S14" s="1">
+        <v>39</v>
+      </c>
+      <c r="T14" s="1">
+        <v>23</v>
+      </c>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1">
+        <v>9094005198</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="4">
+        <v>101000000000</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>5519324522</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>20322124444</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK14" s="4">
+        <v>944000000000</v>
+      </c>
+      <c r="AL14" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="1"/>
+      <c r="AS14" s="1"/>
+      <c r="AT14" s="1"/>
+      <c r="AU14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47">
+      <c r="A15" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="3">
+        <v>43466</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="3">
+        <v>30084</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="M15" s="1">
+        <v>605501</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1">
+        <v>27</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="R15" s="1">
+        <v>605501</v>
+      </c>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1">
+        <v>27</v>
+      </c>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1">
+        <v>7639031650</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="4">
+        <v>101000000000</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>5519329427</v>
+      </c>
+      <c r="AE15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>20326319610</v>
+      </c>
+      <c r="AH15" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK15" s="4">
+        <v>431000000000</v>
+      </c>
+      <c r="AL15" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="1"/>
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="1"/>
+      <c r="AS15" s="1"/>
+      <c r="AT15" s="1"/>
+      <c r="AU15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:47">
+      <c r="A16" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="3">
+        <v>44531</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="3">
+        <v>31171</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M16" s="1">
+        <v>605109</v>
+      </c>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1">
+        <v>27</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="R16" s="1">
+        <v>605109</v>
+      </c>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1">
+        <v>27</v>
+      </c>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="4">
+        <v>100000000000</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>5514061213</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>32455963182</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK16" s="4">
+        <v>350000000000</v>
+      </c>
+      <c r="AL16" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="1"/>
+      <c r="AO16" s="1"/>
+      <c r="AP16" s="1"/>
+      <c r="AQ16" s="1"/>
+      <c r="AR16" s="1"/>
+      <c r="AS16" s="1"/>
+      <c r="AT16" s="1"/>
+      <c r="AU16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:47">
+      <c r="A17" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" s="3">
+        <v>44562</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="3">
+        <v>35171</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="M17" s="1">
+        <v>605105</v>
+      </c>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1">
+        <v>27</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R17" s="1">
+        <v>605111</v>
+      </c>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1">
+        <v>9843953474</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="4">
+        <v>102000000000</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>5519480997</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>20187623411</v>
+      </c>
+      <c r="AH17" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="1"/>
+      <c r="AP17" s="1"/>
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="1"/>
+      <c r="AS17" s="1"/>
+      <c r="AT17" s="1"/>
+      <c r="AU17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:47">
+      <c r="A18" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" s="3">
+        <v>44593</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="3">
+        <v>37381</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M18" s="1">
+        <v>605111</v>
+      </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1">
+        <v>27</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R18" s="1">
+        <v>605111</v>
+      </c>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1">
+        <v>23</v>
+      </c>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1">
+        <v>9159187028</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="4">
+        <v>102000000000</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>5519484033</v>
+      </c>
+      <c r="AE18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>34189746529</v>
+      </c>
+      <c r="AH18" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK18" s="4">
+        <v>282000000000</v>
+      </c>
+      <c r="AL18" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="1"/>
+      <c r="AO18" s="1"/>
+      <c r="AP18" s="1"/>
+      <c r="AQ18" s="1"/>
+      <c r="AR18" s="1"/>
+      <c r="AS18" s="1"/>
+      <c r="AT18" s="1"/>
+      <c r="AU18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:47">
+      <c r="A19" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C19" s="3">
+        <v>44652</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="3">
+        <v>27885</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M19" s="1">
+        <v>605111</v>
+      </c>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1">
+        <v>27</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="R19" s="1">
+        <v>605111</v>
+      </c>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1">
+        <v>27</v>
+      </c>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1">
+        <v>9843793943</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="4">
+        <v>102000000000</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>5519493336</v>
+      </c>
+      <c r="AE19" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF19" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>797633253</v>
+      </c>
+      <c r="AH19" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK19" s="4">
+        <v>623000000000</v>
+      </c>
+      <c r="AL19" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="1"/>
+      <c r="AO19" s="1"/>
+      <c r="AP19" s="1"/>
+      <c r="AQ19" s="1"/>
+      <c r="AR19" s="1"/>
+      <c r="AS19" s="1"/>
+      <c r="AT19" s="1"/>
+      <c r="AU19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:47">
+      <c r="A20" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C20" s="3">
+        <v>44652</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="3">
+        <v>28092</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M20" s="1">
+        <v>605111</v>
+      </c>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R20" s="1">
+        <v>605111</v>
+      </c>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1">
+        <v>9786082782</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="4">
+        <v>101000000000</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>5516039958</v>
+      </c>
+      <c r="AE20" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF20" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>60000535007</v>
+      </c>
+      <c r="AH20" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK20" s="4">
+        <v>717000000000</v>
+      </c>
+      <c r="AL20" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM20" s="1"/>
+      <c r="AN20" s="1"/>
+      <c r="AO20" s="1"/>
+      <c r="AP20" s="1"/>
+      <c r="AQ20" s="1"/>
+      <c r="AR20" s="1"/>
+      <c r="AS20" s="1"/>
+      <c r="AT20" s="1"/>
+      <c r="AU20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:47">
+      <c r="A21" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C21" s="3">
+        <v>44652</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="3">
+        <v>26349</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M21" s="1">
+        <v>605111</v>
+      </c>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R21" s="1">
+        <v>605111</v>
+      </c>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1">
+        <v>8870383181</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="4">
+        <v>102000000000</v>
+      </c>
+      <c r="AC21" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>5519497264</v>
+      </c>
+      <c r="AE21" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF21" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>90675896</v>
+      </c>
+      <c r="AH21" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AI21" s="1"/>
+      <c r="AJ21" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK21" s="4">
+        <v>650000000000</v>
+      </c>
+      <c r="AL21" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AM21" s="1"/>
+      <c r="AN21" s="1"/>
+      <c r="AO21" s="1"/>
+      <c r="AP21" s="1"/>
+      <c r="AQ21" s="1"/>
+      <c r="AR21" s="1"/>
+      <c r="AS21" s="1"/>
+      <c r="AT21" s="1"/>
+      <c r="AU21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:47">
+      <c r="A22" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C22" s="3">
+        <v>44652</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="3">
+        <v>27526</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M22" s="1">
+        <v>605111</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="R22" s="1">
+        <v>605111</v>
+      </c>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1">
+        <v>9087328819</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="4">
+        <v>101000000000</v>
+      </c>
+      <c r="AC22" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>5519497284</v>
+      </c>
+      <c r="AE22" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF22" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>6024530028</v>
+      </c>
+      <c r="AH22" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK22" s="4">
+        <v>983000000000</v>
+      </c>
+      <c r="AL22" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM22" s="1"/>
+      <c r="AN22" s="1"/>
+      <c r="AO22" s="1"/>
+      <c r="AP22" s="1"/>
+      <c r="AQ22" s="1"/>
+      <c r="AR22" s="1"/>
+      <c r="AS22" s="1"/>
+      <c r="AT22" s="1"/>
+      <c r="AU22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:47">
+      <c r="A23" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C23" s="3">
+        <v>44652</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="3">
+        <v>24108</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M23" s="1">
+        <v>605013</v>
+      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R23" s="1">
+        <v>605013</v>
+      </c>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1">
+        <v>9600367832</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="4">
+        <v>102000000000</v>
+      </c>
+      <c r="AC23" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>5519497289</v>
+      </c>
+      <c r="AE23" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF23" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>508619059</v>
+      </c>
+      <c r="AH23" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AI23" s="1"/>
+      <c r="AJ23" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK23" s="4">
+        <v>255000000000</v>
+      </c>
+      <c r="AL23" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AM23" s="1"/>
+      <c r="AN23" s="1"/>
+      <c r="AO23" s="1"/>
+      <c r="AP23" s="1"/>
+      <c r="AQ23" s="1"/>
+      <c r="AR23" s="1"/>
+      <c r="AS23" s="1"/>
+      <c r="AT23" s="1"/>
+      <c r="AU23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:47">
+      <c r="A24" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C24" s="3">
+        <v>44713</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="3">
+        <v>25770</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M24" s="1">
+        <v>605111</v>
+      </c>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R24" s="1">
+        <v>605111</v>
+      </c>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1">
+        <v>8940871775</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="4">
+        <v>102000000000</v>
+      </c>
+      <c r="AC24" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>5519502390</v>
+      </c>
+      <c r="AE24" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF24" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG24" s="1">
+        <v>508590004</v>
+      </c>
+      <c r="AH24" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AI24" s="1"/>
+      <c r="AJ24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK24" s="4">
+        <v>595000000000</v>
+      </c>
+      <c r="AL24" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AM24" s="1"/>
+      <c r="AN24" s="1"/>
+      <c r="AO24" s="1"/>
+      <c r="AP24" s="1"/>
+      <c r="AQ24" s="1"/>
+      <c r="AR24" s="1"/>
+      <c r="AS24" s="1"/>
+      <c r="AT24" s="1"/>
+      <c r="AU24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:47">
+      <c r="A25" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C25" s="3">
+        <v>44713</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="3">
+        <v>34654</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M25" s="1">
+        <v>605111</v>
+      </c>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R25" s="1">
+        <v>605111</v>
+      </c>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1">
+        <v>8668067318</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="4">
+        <v>102000000000</v>
+      </c>
+      <c r="AC25" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>5519502395</v>
+      </c>
+      <c r="AE25" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF25" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AG25" s="4">
+        <v>100000000000</v>
+      </c>
+      <c r="AH25" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AI25" s="1"/>
+      <c r="AJ25" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK25" s="4">
+        <v>959000000000</v>
+      </c>
+      <c r="AL25" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AM25" s="1"/>
+      <c r="AN25" s="1"/>
+      <c r="AO25" s="1"/>
+      <c r="AP25" s="1"/>
+      <c r="AQ25" s="1"/>
+      <c r="AR25" s="1"/>
+      <c r="AS25" s="1"/>
+      <c r="AT25" s="1"/>
+      <c r="AU25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:47">
+      <c r="A26" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C26" s="3">
+        <v>44713</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="3">
+        <v>36468</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M26" s="1">
+        <v>605111</v>
+      </c>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R26" s="1">
+        <v>605111</v>
+      </c>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1">
+        <v>9585177150</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="4">
+        <v>102000000000</v>
+      </c>
+      <c r="AC26" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD26" s="1">
+        <v>5519502639</v>
+      </c>
+      <c r="AE26" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF26" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG26" s="1">
+        <v>95797559</v>
+      </c>
+      <c r="AH26" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK26" s="4">
+        <v>627000000000</v>
+      </c>
+      <c r="AL26" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="1"/>
+      <c r="AO26" s="1"/>
+      <c r="AP26" s="1"/>
+      <c r="AQ26" s="1"/>
+      <c r="AR26" s="1"/>
+      <c r="AS26" s="1"/>
+      <c r="AT26" s="1"/>
+      <c r="AU26" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:47">
+      <c r="A27" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C27" s="3">
+        <v>44713</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="3">
+        <v>34232</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M27" s="1">
+        <v>605109</v>
+      </c>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1">
+        <v>27</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="R27" s="1">
+        <v>605109</v>
+      </c>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1">
+        <v>27</v>
+      </c>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1">
+        <v>7867963173</v>
+      </c>
+      <c r="X27" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="4">
+        <v>102000000000</v>
+      </c>
+      <c r="AC27" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AD27" s="1">
+        <v>5519502640</v>
+      </c>
+      <c r="AE27" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF27" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG27" s="1">
+        <v>6539537993</v>
+      </c>
+      <c r="AH27" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AI27" s="1"/>
+      <c r="AJ27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK27" s="4">
+        <v>696000000000</v>
+      </c>
+      <c r="AL27" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AM27" s="1"/>
+      <c r="AN27" s="1"/>
+      <c r="AO27" s="1"/>
+      <c r="AP27" s="1"/>
+      <c r="AQ27" s="1"/>
+      <c r="AR27" s="1"/>
+      <c r="AS27" s="1"/>
+      <c r="AT27" s="1"/>
+      <c r="AU27" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:47">
+      <c r="A28" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C28" s="3">
+        <v>44774</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="3">
+        <v>25572</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M28" s="1">
+        <v>605111</v>
+      </c>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R28" s="1">
+        <v>605111</v>
+      </c>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1">
+        <v>8940731018</v>
+      </c>
+      <c r="X28" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="4">
+        <v>102000000000</v>
+      </c>
+      <c r="AC28" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AD28" s="1">
+        <v>5519512357</v>
+      </c>
+      <c r="AE28" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF28" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG28" s="1">
+        <v>92439700</v>
+      </c>
+      <c r="AH28" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AI28" s="1"/>
+      <c r="AJ28" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK28" s="4">
+        <v>975000000000</v>
+      </c>
+      <c r="AL28" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AM28" s="1"/>
+      <c r="AN28" s="1"/>
+      <c r="AO28" s="1"/>
+      <c r="AP28" s="1"/>
+      <c r="AQ28" s="1"/>
+      <c r="AR28" s="1"/>
+      <c r="AS28" s="1"/>
+      <c r="AT28" s="1"/>
+      <c r="AU28" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:47">
+      <c r="A29" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C29" s="3">
+        <v>44958</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="3">
+        <v>34308</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M29" s="1">
+        <v>605111</v>
+      </c>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1">
+        <v>27</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="R29" s="1">
+        <v>605111</v>
+      </c>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1">
+        <v>27</v>
+      </c>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1">
+        <v>9843694495</v>
+      </c>
+      <c r="X29" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="4">
+        <v>102000000000</v>
+      </c>
+      <c r="AC29" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AD29" s="1">
+        <v>5519537667</v>
+      </c>
+      <c r="AE29" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF29" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG29" s="1">
+        <v>6301651732</v>
+      </c>
+      <c r="AH29" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AI29" s="1"/>
+      <c r="AJ29" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK29" s="4">
+        <v>477000000000</v>
+      </c>
+      <c r="AL29" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="1"/>
+      <c r="AO29" s="1"/>
+      <c r="AP29" s="1"/>
+      <c r="AQ29" s="1"/>
+      <c r="AR29" s="1"/>
+      <c r="AS29" s="1"/>
+      <c r="AT29" s="1"/>
+      <c r="AU29" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:47">
+      <c r="A30" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C30" s="3">
+        <v>44958</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="3">
+        <v>31989</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M30" s="1">
+        <v>605111</v>
+      </c>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R30" s="1">
+        <v>605111</v>
+      </c>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1">
+        <v>9710060680</v>
+      </c>
+      <c r="X30" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="4">
+        <v>100000000000</v>
+      </c>
+      <c r="AC30" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AD30" s="1">
+        <v>5519538285</v>
+      </c>
+      <c r="AE30" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF30" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG30" s="1">
+        <v>6960106273</v>
+      </c>
+      <c r="AH30" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK30" s="4">
+        <v>859000000000</v>
+      </c>
+      <c r="AL30" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="1"/>
+      <c r="AO30" s="1"/>
+      <c r="AP30" s="1"/>
+      <c r="AQ30" s="1"/>
+      <c r="AR30" s="1"/>
+      <c r="AS30" s="1"/>
+      <c r="AT30" s="1"/>
+      <c r="AU30" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:47">
+      <c r="A31" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C31" s="3">
+        <v>45017</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" s="3">
+        <v>26591</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M31" s="1">
+        <v>605111</v>
+      </c>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R31" s="1">
+        <v>605111</v>
+      </c>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="4">
+        <v>101000000000</v>
+      </c>
+      <c r="AC31" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="AD31" s="1">
+        <v>5519548002</v>
+      </c>
+      <c r="AE31" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF31" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG31" s="1">
+        <v>60001437714</v>
+      </c>
+      <c r="AH31" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK31" s="4">
+        <v>436000000000</v>
+      </c>
+      <c r="AL31" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="1"/>
+      <c r="AO31" s="1"/>
+      <c r="AP31" s="1"/>
+      <c r="AQ31" s="1"/>
+      <c r="AR31" s="1"/>
+      <c r="AS31" s="1"/>
+      <c r="AT31" s="1"/>
+      <c r="AU31" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:47">
+      <c r="A32" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C32" s="3">
+        <v>45170</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="3">
+        <v>20930</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M32" s="1">
+        <v>605111</v>
+      </c>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R32" s="1">
+        <v>605111</v>
+      </c>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1">
+        <v>9626974489</v>
+      </c>
+      <c r="X32" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="4">
+        <v>102000000000</v>
+      </c>
+      <c r="AC32" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AD32" s="1">
+        <v>5519575026</v>
+      </c>
+      <c r="AE32" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF32" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG32" s="1">
+        <v>94261361</v>
+      </c>
+      <c r="AH32" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AI32" s="1"/>
+      <c r="AJ32" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK32" s="4">
+        <v>602000000000</v>
+      </c>
+      <c r="AL32" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AM32" s="1"/>
+      <c r="AN32" s="1"/>
+      <c r="AO32" s="1"/>
+      <c r="AP32" s="1"/>
+      <c r="AQ32" s="1"/>
+      <c r="AR32" s="1"/>
+      <c r="AS32" s="1"/>
+      <c r="AT32" s="1"/>
+      <c r="AU32" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:47">
+      <c r="A33" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C33" s="3">
+        <v>45323</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="3">
+        <v>34842</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M33" s="1">
+        <v>605111</v>
+      </c>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R33" s="1">
+        <v>605111</v>
+      </c>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1">
+        <v>8610325961</v>
+      </c>
+      <c r="X33" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="4">
+        <v>102000000000</v>
+      </c>
+      <c r="AC33" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AD33" s="1">
+        <v>5519025455</v>
+      </c>
+      <c r="AE33" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF33" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG33" s="1">
+        <v>60000698165</v>
+      </c>
+      <c r="AH33" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AI33" s="1"/>
+      <c r="AJ33" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK33" s="4">
+        <v>917000000000</v>
+      </c>
+      <c r="AL33" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AM33" s="1"/>
+      <c r="AN33" s="1"/>
+      <c r="AO33" s="1"/>
+      <c r="AP33" s="1"/>
+      <c r="AQ33" s="1"/>
+      <c r="AR33" s="1"/>
+      <c r="AS33" s="1"/>
+      <c r="AT33" s="1"/>
+      <c r="AU33" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:47">
+      <c r="A34" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C34" s="3">
+        <v>45323</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" s="3">
+        <v>37551</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M34" s="1">
+        <v>605111</v>
+      </c>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R34" s="1">
+        <v>605111</v>
+      </c>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1">
+        <v>9843684974</v>
+      </c>
+      <c r="X34" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="4">
+        <v>102000000000</v>
+      </c>
+      <c r="AC34" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="AD34" s="1">
+        <v>5519600621</v>
+      </c>
+      <c r="AE34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG34" s="1">
+        <v>20274864979</v>
+      </c>
+      <c r="AH34" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="AI34" s="1"/>
+      <c r="AJ34" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK34" s="4">
+        <v>909000000000</v>
+      </c>
+      <c r="AL34" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="AM34" s="1"/>
+      <c r="AN34" s="1"/>
+      <c r="AO34" s="1"/>
+      <c r="AP34" s="1"/>
+      <c r="AQ34" s="1"/>
+      <c r="AR34" s="1"/>
+      <c r="AS34" s="1"/>
+      <c r="AT34" s="1"/>
+      <c r="AU34" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:47">
+      <c r="A35" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C35" s="3">
+        <v>45352</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F35" s="3">
+        <v>26367</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M35" s="1">
+        <v>605111</v>
+      </c>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R35" s="1">
+        <v>605111</v>
+      </c>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1">
+        <v>9442069243</v>
+      </c>
+      <c r="X35" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="4">
+        <v>102000000000</v>
+      </c>
+      <c r="AC35" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF35" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG35" s="1">
+        <v>90672817</v>
+      </c>
+      <c r="AH35" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="AI35" s="1"/>
+      <c r="AJ35" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK35" s="4">
+        <v>540000000000</v>
+      </c>
+      <c r="AL35" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="AM35" s="1"/>
+      <c r="AN35" s="1"/>
+      <c r="AO35" s="1"/>
+      <c r="AP35" s="1"/>
+      <c r="AQ35" s="1"/>
+      <c r="AR35" s="1"/>
+      <c r="AS35" s="1"/>
+      <c r="AT35" s="1"/>
+      <c r="AU35" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:47">
+      <c r="A36" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C36" s="3">
+        <v>45352</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="3">
+        <v>30568</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M36" s="1">
+        <v>605111</v>
+      </c>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="R36" s="1">
+        <v>605111</v>
+      </c>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1">
+        <v>9787244101</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="4">
+        <v>101000000000</v>
+      </c>
+      <c r="AC36" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AD36" s="1">
+        <v>5519082368</v>
+      </c>
+      <c r="AE36" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF36" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG36" s="1">
+        <v>60000615961</v>
+      </c>
+      <c r="AH36" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK36" s="4">
+        <v>221000000000</v>
+      </c>
+      <c r="AL36" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AM36" s="1"/>
+      <c r="AN36" s="1"/>
+      <c r="AO36" s="1"/>
+      <c r="AP36" s="1"/>
+      <c r="AQ36" s="1"/>
+      <c r="AR36" s="1"/>
+      <c r="AS36" s="1"/>
+      <c r="AT36" s="1"/>
+      <c r="AU36" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:47">
+      <c r="A37" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C37" s="3">
+        <v>41000</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="3">
+        <v>29192</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1">
+        <v>7639467982</v>
+      </c>
+      <c r="X37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="4">
+        <v>100000000000</v>
+      </c>
+      <c r="AC37" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD37" s="1">
+        <v>5516055057</v>
+      </c>
+      <c r="AE37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG37" s="1">
+        <v>20326318731</v>
+      </c>
+      <c r="AH37" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="AI37" s="1"/>
+      <c r="AJ37" s="1"/>
+      <c r="AK37" s="4">
+        <v>858000000000</v>
+      </c>
+      <c r="AL37" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AM37" s="1"/>
+      <c r="AN37" s="1"/>
+      <c r="AO37" s="1"/>
+      <c r="AP37" s="1"/>
+      <c r="AQ37" s="1"/>
+      <c r="AR37" s="1"/>
+      <c r="AS37" s="1"/>
+      <c r="AT37" s="1"/>
+      <c r="AU37" s="1">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
